--- a/data/trans_bre/P05A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P05A_R-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.06200665214425088</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.0603319591080034</v>
+        <v>-0.06033195910800341</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9540749257202275</v>
+        <v>-1.046632236683952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.734336856962766</v>
+        <v>-2.866096091516307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.672537568964438</v>
+        <v>-6.971480428398759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.890220756962655</v>
+        <v>-5.066535808765309</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.02901173709820159</v>
+        <v>-0.03096674169434769</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0680236142687768</v>
+        <v>-0.07035260080637602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1713015676514568</v>
+        <v>-0.1771391101862522</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2281423459010796</v>
+        <v>-0.2284252067992864</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.356319365660736</v>
+        <v>6.781981500666885</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.644546339361757</v>
+        <v>5.668793598798426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.464994750640241</v>
+        <v>2.71301947937238</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.637888847646038</v>
+        <v>2.592605620605905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2123842344511836</v>
+        <v>0.231739371999502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.155875666076133</v>
+        <v>0.1568497357552874</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07206736598272376</v>
+        <v>0.08325080600285178</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1542268807241678</v>
+        <v>0.1505208933763082</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.928302736691057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.839050586003839</v>
+        <v>2.839050586003836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2719945867768625</v>
@@ -749,7 +749,7 @@
         <v>0.05553551340137697</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1655211036758739</v>
+        <v>0.1655211036758737</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.004747224380549</v>
+        <v>3.913171028094137</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.812200377508922</v>
+        <v>-3.443982946569374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9944409778409481</v>
+        <v>-1.190414148643508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5001854687513735</v>
+        <v>0.5329872501754434</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1396544112622214</v>
+        <v>0.139425564565714</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09377870601592331</v>
+        <v>-0.08340703741872529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02737726284502676</v>
+        <v>-0.03284728831032267</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02752334982824554</v>
+        <v>0.02727270359137919</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.90498568198803</v>
+        <v>10.59263517455456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.664075993707115</v>
+        <v>3.155867123104685</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.185401475734905</v>
+        <v>5.243392431295369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.270517123106747</v>
+        <v>5.190009832212302</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4240215733012194</v>
+        <v>0.4149340753636315</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06984815521045189</v>
+        <v>0.08471650305468768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.157126902027861</v>
+        <v>0.1594443582331566</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3350203098220967</v>
+        <v>0.3328655904092642</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.8950559562412974</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.53418310343498</v>
+        <v>1.534183103434983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02463253481523294</v>
@@ -849,7 +849,7 @@
         <v>0.0222280162266033</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.06875993653252653</v>
+        <v>0.06875993653252667</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.615773095136214</v>
+        <v>-4.806815327232627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.025342776560162</v>
+        <v>-7.318164187033068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.373270004502414</v>
+        <v>-5.222602056763939</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.223538167886439</v>
+        <v>-2.983827047217906</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1639750223780143</v>
+        <v>-0.1362372998578435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1480933223695571</v>
+        <v>-0.1522585789491524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1207018752274387</v>
+        <v>-0.1201830758081213</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1281556917848588</v>
+        <v>-0.1174623961401069</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.917926530601028</v>
+        <v>7.029713581144772</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.417777413142159</v>
+        <v>6.632492320775535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.918180108565148</v>
+        <v>7.130188643144344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.607432766467394</v>
+        <v>6.039477470692236</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2319631240992917</v>
+        <v>0.2416926375278705</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1579462447985302</v>
+        <v>0.1619467112972764</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1879038135198464</v>
+        <v>0.1911648698207208</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2807306417320377</v>
+        <v>0.3030706207048855</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.01816003725219793</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09664347964487272</v>
+        <v>0.0966434796448727</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.374093386206664</v>
+        <v>2.500816036412672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.336103257636435</v>
+        <v>-2.178999816580501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.901670030207102</v>
+        <v>-1.683725899501022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08909611615390065</v>
+        <v>-0.08116429171317943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0784053205327038</v>
+        <v>0.0819614629941358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05700493908587874</v>
+        <v>-0.05338810824613094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05047869451833732</v>
+        <v>-0.04511918731376098</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.003894336321415947</v>
+        <v>-0.004121718588401855</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.983966230252565</v>
+        <v>7.277535050327498</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.519090990816376</v>
+        <v>2.505016579109825</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.934345886732182</v>
+        <v>2.9523208116457</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.598355209631742</v>
+        <v>3.63409839409317</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2482905308787056</v>
+        <v>0.2568022576692071</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0657193017005486</v>
+        <v>0.06482663379089955</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08503370248342859</v>
+        <v>0.08482773497394917</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2040681440435458</v>
+        <v>0.2090378605773958</v>
       </c>
     </row>
     <row r="16">
